--- a/Project_V/Assets/ExcelFiles/rulebookdata.xlsx
+++ b/Project_V/Assets/ExcelFiles/rulebookdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27515763-BCA3-4AE8-9F50-7E5B3A5037E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE58A0-9C4A-44E9-B5A0-A9643A30F09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="2080" windowWidth="22450" windowHeight="17860" tabRatio="641" xr2:uid="{54E97D39-8232-46B4-AD59-B28E973BDB82}"/>
+    <workbookView xWindow="1420" yWindow="210" windowWidth="22450" windowHeight="17860" tabRatio="641" xr2:uid="{54E97D39-8232-46B4-AD59-B28E973BDB82}"/>
   </bookViews>
   <sheets>
     <sheet name="rulebookdata" sheetId="29" r:id="rId1"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Project_V/Assets/ExcelFiles/rulebookdata.xlsx
+++ b/Project_V/Assets/ExcelFiles/rulebookdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE58A0-9C4A-44E9-B5A0-A9643A30F09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD898D-75E1-41A8-957E-6ABF3941E81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="210" windowWidth="22450" windowHeight="17860" tabRatio="641" xr2:uid="{54E97D39-8232-46B4-AD59-B28E973BDB82}"/>
+    <workbookView xWindow="7030" yWindow="1780" windowWidth="19590" windowHeight="18620" tabRatio="641" xr2:uid="{54E97D39-8232-46B4-AD59-B28E973BDB82}"/>
   </bookViews>
   <sheets>
     <sheet name="rulebookdata" sheetId="29" r:id="rId1"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prototype_Sprites\TAr0UZAUqBhOvjMN-tIwe_9ZGvr9AWLfrWxu9WWU4tnq-0pqZXryMMhrNxQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우편 검열관에 관해</t>
   </si>
   <si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Textdesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우편 검열관의 일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +200,14 @@
   <si>
     <t>왕립 얼스터 보병 연대
 1대대 | 2대대 | 3대대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAr0UZAUqBhOvjMN-tIwe_9ZGvr9AWLfrWxu9WWU4tnq-0pqZXryMMhrNxQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +631,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>226</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>-171</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>25</v>
@@ -791,10 +791,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>16</v>
@@ -812,10 +812,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>16</v>
@@ -833,10 +833,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>16</v>
@@ -854,10 +854,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
         <v>16</v>
@@ -875,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -913,21 +913,23 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>16</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>267.7</v>
+      </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>-67</v>
+        <v>150.9</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -938,7 +940,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -960,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -979,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2">
         <v>16</v>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>-83</v>
+        <v>134.30000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -1001,7 +1003,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -1023,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1042,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2">
         <v>16</v>
@@ -1063,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2">
         <v>16</v>
@@ -1084,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2">
         <v>16</v>
@@ -1102,7 +1104,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -1124,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1143,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -1164,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2">
         <v>16</v>
@@ -1185,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2">
         <v>16</v>
@@ -1203,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -1225,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1244,7 +1246,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2">
         <v>16</v>
@@ -1265,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2">
         <v>16</v>
@@ -1286,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2">
         <v>16</v>
@@ -1304,7 +1306,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -1326,7 +1328,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1345,7 +1347,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2">
         <v>16</v>
@@ -1366,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2">
         <v>16</v>
@@ -1387,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2">
         <v>16</v>
